--- a/Ammar.xlsx
+++ b/Ammar.xlsx
@@ -24,7 +24,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -331,12 +331,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>